--- a/branches/master/StructureDefinition-hiv-viral-load-suppression.xlsx
+++ b/branches/master/StructureDefinition-hiv-viral-load-suppression.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/hiv-viral-load-suppression</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/StructureDefinition/hiv-viral-load-suppression</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T14:41:26+00:00</t>
+    <t>2022-11-24T14:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://example.com/fhir/example/CodeSystem/cs-hiv-obs-codes"/&gt;
+    &lt;system value="http://jembi.org/fhir/hiv-casereporting/CodeSystem/cs-hiv-obs-codes"/&gt;
     &lt;code value="VL-RESULT"/&gt;
     &lt;display value="Viral load result"/&gt;
   &lt;/coding&gt;
@@ -984,13 +984,13 @@
     <t>vlResult</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-vl-interpretation</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/ValueSet/vs-vl-interpretation</t>
   </si>
   <si>
     <t>vlSuppression</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-vl-suppression</t>
+    <t>http://jembi.org/fhir/hiv-casereporting/ValueSet/vs-vl-suppression</t>
   </si>
   <si>
     <t>Observation.note</t>
@@ -1804,7 +1804,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.36328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.84375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
